--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Codes/量化项目/策略尝试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1888EF-6F85-D947-91AB-7032BA6C9AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0D93F-EFE3-C44E-93B5-7D0AE5CC0F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,9 @@
   <si>
     <t>存取金额</t>
   </si>
+  <si>
+    <t>Trade on every Thursday. T+1 price. Signal: 0 is hold. 1 is buy and 2 is strong buy.</t>
+  </si>
 </sst>
 </file>
 
@@ -106,10 +109,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,6 +285,24 @@
                 <c:pt idx="8">
                   <c:v>45051</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>45052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -311,6 +338,21 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>136667.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136667.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136667.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>137367.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136838.51999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>136379.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5319833-2095-864E-96EA-64D00EBC547E}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="188" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1491,7 @@
         <v>69324.5</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D10" si="0">C2/E2</f>
+        <f t="shared" ref="D2:D15" si="0">C2/E2</f>
         <v>0.50835463867328934</v>
       </c>
       <c r="E2">
@@ -1476,11 +1518,11 @@
         <v>45044</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B9" si="1">B2+H2/F3</f>
+        <f t="shared" ref="B3:B8" si="1">B2+H2/F3</f>
         <v>17.142803436617449</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C10" si="2">C2-H2</f>
+        <f t="shared" ref="C3:C15" si="2">C2-H2</f>
         <v>67984.12</v>
       </c>
       <c r="D3" s="4">
@@ -1696,7 +1738,7 @@
         <v>17.142803436617449</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
+        <f>C8-H8</f>
         <v>67984.12</v>
       </c>
       <c r="D9" s="4">
@@ -1759,28 +1801,191 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11" si="4">B10+H10/F11</f>
+        <v>17.658799310657209</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>65911.426493487175</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48227533098720721</v>
+      </c>
+      <c r="E11">
+        <v>136667.63</v>
+      </c>
+      <c r="F11">
+        <v>4016.88</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3500</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1">
+        <v>45053</v>
+      </c>
+      <c r="B12">
+        <f>B11+H11/F12</f>
+        <v>17.658799310657209</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>65911.426493487175</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48227533098720721</v>
+      </c>
+      <c r="E12">
+        <v>136667.63</v>
+      </c>
+      <c r="F12">
+        <v>4016.88</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3500</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B13">
+        <f>B12+H12/F13</f>
+        <v>17.658799310657209</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>65911.426493487175</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47981928212615527</v>
+      </c>
+      <c r="E13">
+        <v>137367.19</v>
+      </c>
+      <c r="F13">
+        <v>4062.66</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3500</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B14">
+        <f>B13+H13/F14</f>
+        <v>17.658799310657209</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>65911.426493487175</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48167304420924151</v>
+      </c>
+      <c r="E14">
+        <v>136838.51999999999</v>
+      </c>
+      <c r="F14">
+        <v>4027.88</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3750</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B15">
+        <f>B14+H14/F15</f>
+        <v>17.658799310657209</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>65911.426493487175</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48329292654031109</v>
+      </c>
+      <c r="E15">
+        <v>136379.87</v>
+      </c>
+      <c r="F15">
+        <v>3996.87</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3750</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>45057</v>
+      </c>
       <c r="C16" s="2"/>
+      <c r="I16">
+        <v>3750</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -1815,16 +2020,18 @@
       <c r="C24" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841C8C38-C0D1-2847-8D6D-1A03EACFC3E0}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1900,6 +2107,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0D93F-EFE3-C44E-93B5-7D0AE5CC0F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA039DD-3665-9548-A643-DA2D9C98AAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
@@ -303,6 +303,24 @@
                 <c:pt idx="14">
                   <c:v>45057</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45059</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45060</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45063</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -353,6 +371,27 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>136379.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136290.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135394.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135394.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135394.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136427.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136141.32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135786.20000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,7 +1470,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E8" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1530,7 @@
         <v>69324.5</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D15" si="0">C2/E2</f>
+        <f t="shared" ref="D2:D22" si="0">C2/E2</f>
         <v>0.50835463867328934</v>
       </c>
       <c r="E2">
@@ -1522,7 +1561,7 @@
         <v>17.142803436617449</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C15" si="2">C2-H2</f>
+        <f t="shared" ref="C3:C22" si="2">C2-H2</f>
         <v>67984.12</v>
       </c>
       <c r="D3" s="4">
@@ -1840,7 +1879,7 @@
         <v>45053</v>
       </c>
       <c r="B12">
-        <f>B11+H11/F12</f>
+        <f t="shared" ref="B12:B22" si="5">B11+H11/F12</f>
         <v>17.658799310657209</v>
       </c>
       <c r="C12" s="2">
@@ -1875,7 +1914,7 @@
         <v>45054</v>
       </c>
       <c r="B13">
-        <f>B12+H12/F13</f>
+        <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
       <c r="C13" s="2">
@@ -1910,7 +1949,7 @@
         <v>45055</v>
       </c>
       <c r="B14">
-        <f>B13+H13/F14</f>
+        <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
       <c r="C14" s="2">
@@ -1945,7 +1984,7 @@
         <v>45056</v>
       </c>
       <c r="B15">
-        <f>B14+H14/F15</f>
+        <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
       <c r="C15" s="2">
@@ -1979,7 +2018,31 @@
       <c r="A16" s="1">
         <v>45057</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>17.658799310657209</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>65911.426493487175</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48361047573655391</v>
+      </c>
+      <c r="E16">
+        <v>136290.32</v>
+      </c>
+      <c r="F16">
+        <v>3990.66</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>F16*B16*0.02</f>
+        <v>1409.405281141346</v>
+      </c>
       <c r="I16">
         <v>3750</v>
       </c>
@@ -1987,35 +2050,218 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="5"/>
+        <v>18.016719874922511</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>64502.021212345826</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47640190318698322</v>
+      </c>
+      <c r="E17">
+        <v>135394.13</v>
+      </c>
+      <c r="F17">
+        <v>3937.76</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>3750</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45059</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>18.016719874922511</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>64502.021212345826</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47640190318698322</v>
+      </c>
+      <c r="E18">
+        <v>135394.13</v>
+      </c>
+      <c r="F18">
+        <v>3998.89</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3750</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45060</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>18.016719874922511</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>64502.021212345826</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47640190318698322</v>
+      </c>
+      <c r="E19">
+        <v>135394.13</v>
+      </c>
+      <c r="F19">
+        <v>3998.89</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3750</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>18.016719874922511</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>64502.021212345826</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47279190714354336</v>
+      </c>
+      <c r="E20">
+        <v>136427.93</v>
+      </c>
+      <c r="F20">
+        <v>3998.89</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3750</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B21">
+        <f>B20+H20/F21</f>
+        <v>18.016719874922511</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>64502.021212345826</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47378724704847747</v>
+      </c>
+      <c r="E21">
+        <v>136141.32</v>
+      </c>
+      <c r="F21">
+        <v>3960.17</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>9000</v>
+      </c>
+      <c r="I21">
+        <v>3750</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>55502.021212345826</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.40874566938573892</v>
+      </c>
+      <c r="E22">
+        <v>135786.20000000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4000</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" s="2"/>
     </row>

--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA039DD-3665-9548-A643-DA2D9C98AAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330CE4B-D20A-7B4D-83A1-403E89CD1E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Trade on every Thursday. T+1 price. Signal: 0 is hold. 1 is buy and 2 is strong buy.</t>
+  </si>
+  <si>
+    <t>Today's trade is on the T+0 closed price instead of yesterday's price. Cuz's it's a strong buy signal and I don't want to miss it.</t>
   </si>
 </sst>
 </file>
@@ -321,6 +324,12 @@
                 <c:pt idx="20">
                   <c:v>45063</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45065</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -392,6 +401,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>135786.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135475.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135475.29999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +588,477 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closed_Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45057</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45059</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45060</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$2:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3988.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4029.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4029.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4029.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4029.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4029.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4029.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4030.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4016.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4016.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4016.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4062.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4027.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3996.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3990.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3937.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3998.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3998.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3998.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3960.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3956.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3944.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3944.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3944.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3969.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3913.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D401-CF45-B6A1-07C28F52CB23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="315950592"/>
+        <c:axId val="520249280"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="315950592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520249280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="520249280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315950592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1129,6 +1614,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1162,6 +2163,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85991033-522E-D54D-BD7F-E1C45A575CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1467,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5319833-2095-864E-96EA-64D00EBC547E}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E4:E8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1530,7 +2569,7 @@
         <v>69324.5</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D22" si="0">C2/E2</f>
+        <f t="shared" ref="D2:D28" si="0">C2/E2</f>
         <v>0.50835463867328934</v>
       </c>
       <c r="E2">
@@ -1561,7 +2600,7 @@
         <v>17.142803436617449</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C22" si="2">C2-H2</f>
+        <f t="shared" ref="C3:C28" si="2">C2-H2</f>
         <v>67984.12</v>
       </c>
       <c r="D3" s="4">
@@ -1879,7 +2918,7 @@
         <v>45053</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B22" si="5">B11+H11/F12</f>
+        <f t="shared" ref="B12:B26" si="5">B11+H11/F12</f>
         <v>17.658799310657209</v>
       </c>
       <c r="C12" s="2">
@@ -2050,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45058</v>
       </c>
@@ -2085,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45059</v>
       </c>
@@ -2120,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45060</v>
       </c>
@@ -2155,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45061</v>
       </c>
@@ -2190,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45062</v>
       </c>
@@ -2216,7 +3255,8 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9000</v>
+        <f>F21*B21*0.125</f>
+        <v>8918.6591933839863</v>
       </c>
       <c r="I21">
         <v>3750</v>
@@ -2225,25 +3265,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45063</v>
       </c>
-      <c r="B22" t="e">
+      <c r="B22">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>20.271143884958732</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="2"/>
-        <v>55502.021212345826</v>
+        <v>55583.362018961838</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.40874566938573892</v>
+        <v>0.40934470527168321</v>
       </c>
       <c r="E22">
         <v>135786.20000000001</v>
       </c>
+      <c r="F22">
+        <v>3956.07</v>
+      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -2257,13 +3300,201 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>20.271143884958732</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>55583.362018961838</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41028410358908113</v>
+      </c>
+      <c r="E23">
+        <v>135475.29999999999</v>
+      </c>
+      <c r="F23">
+        <v>3944.54</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>20.271143884958732</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>55583.362018961838</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41028410358908113</v>
+      </c>
+      <c r="E24">
+        <v>135475.29999999999</v>
+      </c>
+      <c r="F24">
+        <v>3944.54</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>4000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>20.271143884958732</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>55583.362018961838</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41028410358908113</v>
+      </c>
+      <c r="E25">
+        <v>135475.29999999999</v>
+      </c>
+      <c r="F25">
+        <v>3944.54</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4000</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>20.271143884958732</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>55583.362018961838</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41027477608576246</v>
+      </c>
+      <c r="E26">
+        <v>135478.38</v>
+      </c>
+      <c r="F26">
+        <v>3969.33</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>4000</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B27">
+        <f>B26+H26/F27</f>
+        <v>20.271143884958732</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>55583.362018961838</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41027477608576246</v>
+      </c>
+      <c r="E27">
+        <v>135478.38</v>
+      </c>
+      <c r="F27">
+        <v>3913.19</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f>C27*0.25</f>
+        <v>13895.840504740459</v>
+      </c>
+      <c r="I27">
+        <v>4000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B28">
+        <f>B27+H27/F27</f>
+        <v>23.822170158853037</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>41687.521514221378</v>
+      </c>
+      <c r="D28" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2276,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841C8C38-C0D1-2847-8D6D-1A03EACFC3E0}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330CE4B-D20A-7B4D-83A1-403E89CD1E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A7136-B9B8-784F-917F-72B807F45959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
@@ -109,8 +109,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,15 +154,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,7 +268,7 @@
             <c:numRef>
               <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>45043</c:v>
@@ -437,7 +446,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -668,7 +677,7 @@
             <c:numRef>
               <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45043</c:v>
@@ -758,7 +767,7 @@
             <c:numRef>
               <c:f>Data!$F$2:$F$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3988.42</c:v>
@@ -837,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3913.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3859.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +879,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -931,7 +943,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2506,85 +2518,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5319833-2095-864E-96EA-64D00EBC547E}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>45043</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <f>(E2-C2)/F2</f>
         <v>16.810127820039014</v>
       </c>
       <c r="C2">
         <v>69324.5</v>
       </c>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:D28" si="0">C2/E2</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D33" si="0">C2/E2</f>
         <v>0.50835463867328934</v>
       </c>
       <c r="E2">
         <v>136370.35</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>3988.42</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1340.38</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>3250</v>
       </c>
       <c r="J2">
@@ -2592,18 +2604,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>45044</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <f t="shared" ref="B3:B8" si="1">B2+H2/F3</f>
         <v>17.142803436617449</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C28" si="2">C2-H2</f>
         <v>67984.12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2611,7 +2623,7 @@
         <f>136884.34</f>
         <v>136884.34</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>4029.09</v>
       </c>
       <c r="G3">
@@ -2620,7 +2632,7 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>3250</v>
       </c>
       <c r="J3">
@@ -2628,18 +2640,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>45045</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2647,7 +2659,7 @@
         <f t="shared" ref="E4:E8" si="3">136884.34</f>
         <v>136884.34</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>4029.09</v>
       </c>
       <c r="G4">
@@ -2656,7 +2668,7 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>3250</v>
       </c>
       <c r="J4">
@@ -2664,18 +2676,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>45046</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2683,7 +2695,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>4029.09</v>
       </c>
       <c r="G5">
@@ -2692,7 +2704,7 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>3250</v>
       </c>
       <c r="J5">
@@ -2700,18 +2712,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>45047</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2719,7 +2731,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>4029.09</v>
       </c>
       <c r="G6">
@@ -2728,7 +2740,7 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>3250</v>
       </c>
       <c r="J6">
@@ -2736,18 +2748,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>45048</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2755,7 +2767,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>4029.09</v>
       </c>
       <c r="G7">
@@ -2764,7 +2776,7 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>3250</v>
       </c>
       <c r="J7">
@@ -2772,18 +2784,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>45049</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2791,7 +2803,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>4029.09</v>
       </c>
       <c r="G8">
@@ -2800,7 +2812,7 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>3250</v>
       </c>
       <c r="J8">
@@ -2808,25 +2820,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>45050</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <f>B8+H8/F9</f>
         <v>17.142803436617449</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>C8-H8</f>
         <v>67984.12</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.49667954268215386</v>
       </c>
       <c r="E9">
         <v>136877.23000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>4030.25</v>
       </c>
       <c r="G9">
@@ -2836,7 +2848,7 @@
         <f>0.03*B9*F9</f>
         <v>2072.6935065128241</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>3500</v>
       </c>
       <c r="J9">
@@ -2844,25 +2856,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>45051</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <f>B9+H9/F10</f>
         <v>17.658799310657209</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>0.48227533098720721</v>
       </c>
       <c r="E10">
         <v>136667.63</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>4016.88</v>
       </c>
       <c r="G10">
@@ -2871,7 +2883,7 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>3500</v>
       </c>
       <c r="J10">
@@ -2879,25 +2891,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>45052</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <f t="shared" ref="B11" si="4">B10+H10/F11</f>
         <v>17.658799310657209</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>0.48227533098720721</v>
       </c>
       <c r="E11">
         <v>136667.63</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>4016.88</v>
       </c>
       <c r="G11">
@@ -2906,7 +2918,7 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>3500</v>
       </c>
       <c r="J11">
@@ -2914,25 +2926,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>45053</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <f t="shared" ref="B12:B26" si="5">B11+H11/F12</f>
         <v>17.658799310657209</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>0.48227533098720721</v>
       </c>
       <c r="E12">
         <v>136667.63</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>4016.88</v>
       </c>
       <c r="G12">
@@ -2941,7 +2953,7 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>3500</v>
       </c>
       <c r="J12">
@@ -2949,25 +2961,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>45054</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0.47981928212615527</v>
       </c>
       <c r="E13">
         <v>137367.19</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>4062.66</v>
       </c>
       <c r="G13">
@@ -2976,7 +2988,7 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>3500</v>
       </c>
       <c r="J13">
@@ -2984,25 +2996,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>45055</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0.48167304420924151</v>
       </c>
       <c r="E14">
         <v>136838.51999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>4027.88</v>
       </c>
       <c r="G14">
@@ -3011,7 +3023,7 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>3750</v>
       </c>
       <c r="J14">
@@ -3019,25 +3031,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>45056</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.48329292654031109</v>
       </c>
       <c r="E15">
         <v>136379.87</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>3996.87</v>
       </c>
       <c r="G15">
@@ -3046,7 +3058,7 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>3750</v>
       </c>
       <c r="J15">
@@ -3054,25 +3066,25 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>45057</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>0.48361047573655391</v>
       </c>
       <c r="E16">
         <v>136290.32</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>3990.66</v>
       </c>
       <c r="G16">
@@ -3082,7 +3094,7 @@
         <f>F16*B16*0.02</f>
         <v>1409.405281141346</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>3750</v>
       </c>
       <c r="J16">
@@ -3090,25 +3102,25 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>45058</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>0.47640190318698322</v>
       </c>
       <c r="E17">
         <v>135394.13</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>3937.76</v>
       </c>
       <c r="G17">
@@ -3117,7 +3129,7 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>3750</v>
       </c>
       <c r="J17">
@@ -3125,25 +3137,25 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>45059</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>0.47640190318698322</v>
       </c>
       <c r="E18">
         <v>135394.13</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>3998.89</v>
       </c>
       <c r="G18">
@@ -3152,7 +3164,7 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>3750</v>
       </c>
       <c r="J18">
@@ -3160,25 +3172,25 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>45060</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>0.47640190318698322</v>
       </c>
       <c r="E19">
         <v>135394.13</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>3998.89</v>
       </c>
       <c r="G19">
@@ -3187,7 +3199,7 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>3750</v>
       </c>
       <c r="J19">
@@ -3195,25 +3207,25 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>45061</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>0.47279190714354336</v>
       </c>
       <c r="E20">
         <v>136427.93</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>3998.89</v>
       </c>
       <c r="G20">
@@ -3222,7 +3234,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>3750</v>
       </c>
       <c r="J20">
@@ -3230,25 +3242,25 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>45062</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <f>B20+H20/F21</f>
         <v>18.016719874922511</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>0.47378724704847747</v>
       </c>
       <c r="E21">
         <v>136141.32</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>3960.17</v>
       </c>
       <c r="G21">
@@ -3258,7 +3270,7 @@
         <f>F21*B21*0.125</f>
         <v>8918.6591933839863</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>3750</v>
       </c>
       <c r="J21">
@@ -3266,25 +3278,25 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>45063</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>0.40934470527168321</v>
       </c>
       <c r="E22">
         <v>135786.20000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>3956.07</v>
       </c>
       <c r="G22">
@@ -3293,7 +3305,7 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>4000</v>
       </c>
       <c r="J22">
@@ -3301,25 +3313,25 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="9">
         <v>45064</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>0.41028410358908113</v>
       </c>
       <c r="E23">
         <v>135475.29999999999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>3944.54</v>
       </c>
       <c r="G23">
@@ -3328,7 +3340,7 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>4000</v>
       </c>
       <c r="J23">
@@ -3336,25 +3348,25 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>45065</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>0.41028410358908113</v>
       </c>
       <c r="E24">
         <v>135475.29999999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>3944.54</v>
       </c>
       <c r="G24">
@@ -3363,7 +3375,7 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>4000</v>
       </c>
       <c r="J24">
@@ -3371,25 +3383,25 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>45066</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>0.41028410358908113</v>
       </c>
       <c r="E25">
         <v>135475.29999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>3944.54</v>
       </c>
       <c r="G25">
@@ -3398,7 +3410,7 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>4000</v>
       </c>
       <c r="J25">
@@ -3406,25 +3418,25 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>45067</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>0.41027477608576246</v>
       </c>
       <c r="E26">
         <v>135478.38</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>3969.33</v>
       </c>
       <c r="G26">
@@ -3433,43 +3445,43 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>4000</v>
+      <c r="I26" s="1">
+        <v>4250</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>45068</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <f>B26+H26/F27</f>
         <v>20.271143884958732</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>0.41027477608576246</v>
       </c>
       <c r="E27">
         <v>135478.38</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>3913.19</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f>C27*0.25</f>
         <v>13895.840504740459</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>4000</v>
       </c>
       <c r="J27">
@@ -3480,26 +3492,470 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="9">
         <v>45069</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <f>B27+H27/F27</f>
         <v>23.822170158853037</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <f t="shared" si="2"/>
         <v>41687.521514221378</v>
       </c>
-      <c r="D28" s="4" t="e">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.30892602152266657</v>
+      </c>
+      <c r="E28">
+        <v>134943.38</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3859.09</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="7">
+        <f>B28+H28/F28</f>
+        <v>23.822170158853037</v>
+      </c>
+      <c r="C29" s="1">
+        <f>4266.56+37370.87</f>
+        <v>41637.43</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31188920268663745</v>
+      </c>
+      <c r="E29">
+        <v>133500.71</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3833.9416999999999</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>C29*0.2</f>
+        <v>8327.4860000000008</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="7">
+        <f>B29+H29/F29</f>
+        <v>25.994213098368785</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C29-H29</f>
+        <v>33309.944000000003</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25017739266801009</v>
+      </c>
+      <c r="E30">
+        <v>133145.29999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3837.75</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B30+H30/F30</f>
+        <v>25.994213098368785</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C30-H30</f>
+        <v>33309.944000000003</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25017739266801009</v>
+      </c>
+      <c r="E31">
+        <v>133145.29999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3798.54</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>45078</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B31+H31/F31</f>
+        <v>25.994213098368785</v>
+      </c>
+      <c r="C32" s="1">
+        <f>28797.92+I32</f>
+        <v>33315.56</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25209960290534328</v>
+      </c>
+      <c r="E32">
+        <v>132152.37</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3806.87</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4517.6400000000003</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>45083</v>
+      </c>
+      <c r="B33" s="7">
+        <f t="shared" ref="B33" si="6">B32+H32/F32</f>
+        <v>25.994213098368785</v>
+      </c>
+      <c r="C33" s="1">
+        <f>28531.17+I33</f>
+        <v>33300.899999999994</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25120620983072323</v>
+      </c>
+      <c r="E33">
+        <v>132564</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3808.16</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4769.7299999999996</v>
+      </c>
+      <c r="J33">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>45084</v>
+      </c>
+      <c r="B34" s="7">
+        <f>B33+H33/F33</f>
+        <v>25.994213098368785</v>
+      </c>
+      <c r="C34" s="1">
+        <f>C33-H33+J33</f>
+        <v>33279.899999999994</v>
+      </c>
+      <c r="D34" s="3">
+        <f>C34/E34</f>
+        <v>0.25104779578166014</v>
+      </c>
+      <c r="E34">
+        <v>132564</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3789.34</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4769.7299999999996</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>45085</v>
+      </c>
+      <c r="B35" s="7">
+        <f>B34+H34/F34</f>
+        <v>27.313704091523267</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35" si="7">C34-H34</f>
+        <v>28279.899999999994</v>
+      </c>
+      <c r="D35" s="3">
+        <f>C35/E35</f>
+        <v>0.21333016505235203</v>
+      </c>
+      <c r="E35">
+        <v>132564</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3820.19</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4770.49</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>45088</v>
+      </c>
+      <c r="B36" s="7">
+        <f>B35+H35/F35</f>
+        <v>27.313704091523267</v>
+      </c>
+      <c r="C36" s="1">
+        <f>23537.47+I35</f>
+        <v>28307.96</v>
+      </c>
+      <c r="D36" s="3">
+        <f>C36/E36</f>
+        <v>0.21222063630445889</v>
+      </c>
+      <c r="E36">
+        <v>133389.29</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3844.4324000000001</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>5000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4770.49</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>45089</v>
+      </c>
+      <c r="B37" s="7">
+        <f>B36+H36/F36</f>
+        <v>28.614286200861436</v>
+      </c>
+      <c r="C37" s="1">
+        <f>C36-H36+J36</f>
+        <v>23307.96</v>
+      </c>
+      <c r="D37" s="3">
+        <f>C37/E37</f>
+        <v>0.17372458151891654</v>
+      </c>
+      <c r="E37">
+        <v>134166.16</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3864.91</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4770.49</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>45092</v>
+      </c>
+      <c r="B38" s="7">
+        <f>B36+H36/F36</f>
+        <v>28.614286200861436</v>
+      </c>
+      <c r="C38" s="1">
+        <f>C37-G37+J37</f>
+        <v>23307.96</v>
+      </c>
+      <c r="D38" s="3">
+        <f>C38/E38</f>
+        <v>0.17002471154544763</v>
+      </c>
+      <c r="E38">
+        <v>137085.72</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3963.35</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>5000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4770.49</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>45095</v>
+      </c>
+      <c r="B39" s="7">
+        <f>B37+H37/F37</f>
+        <v>28.614286200861436</v>
+      </c>
+      <c r="C39" s="1">
+        <f>C38-H38+J38</f>
+        <v>18307.96</v>
+      </c>
+      <c r="D39" s="3">
+        <f>C39/E39</f>
+        <v>0.13354925350706151</v>
+      </c>
+      <c r="E39">
+        <v>137087.70000000001</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5021.71</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>45103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C38 C29" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3530,57 +3986,57 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A7136-B9B8-784F-917F-72B807F45959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330CE4B-D20A-7B4D-83A1-403E89CD1E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
@@ -109,9 +109,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,23 +153,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,7 +259,7 @@
             <c:numRef>
               <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>45043</c:v>
@@ -446,7 +437,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -677,7 +668,7 @@
             <c:numRef>
               <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45043</c:v>
@@ -767,7 +758,7 @@
             <c:numRef>
               <c:f>Data!$F$2:$F$28</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3988.42</c:v>
@@ -846,9 +837,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3913.19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3859.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,7 +867,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -943,7 +931,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2518,85 +2506,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5319833-2095-864E-96EA-64D00EBC547E}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="1">
         <v>45043</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <f>(E2-C2)/F2</f>
         <v>16.810127820039014</v>
       </c>
       <c r="C2">
         <v>69324.5</v>
       </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D33" si="0">C2/E2</f>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D28" si="0">C2/E2</f>
         <v>0.50835463867328934</v>
       </c>
       <c r="E2">
         <v>136370.35</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>3988.42</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>1340.38</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>3250</v>
       </c>
       <c r="J2">
@@ -2604,18 +2592,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="1">
         <v>45044</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <f t="shared" ref="B3:B8" si="1">B2+H2/F3</f>
         <v>17.142803436617449</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C28" si="2">C2-H2</f>
         <v>67984.12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2623,7 +2611,7 @@
         <f>136884.34</f>
         <v>136884.34</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>4029.09</v>
       </c>
       <c r="G3">
@@ -2632,7 +2620,7 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>3250</v>
       </c>
       <c r="J3">
@@ -2640,18 +2628,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="1">
         <v>45045</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2659,7 +2647,7 @@
         <f t="shared" ref="E4:E8" si="3">136884.34</f>
         <v>136884.34</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>4029.09</v>
       </c>
       <c r="G4">
@@ -2668,7 +2656,7 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>3250</v>
       </c>
       <c r="J4">
@@ -2676,18 +2664,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="1">
         <v>45046</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2695,7 +2683,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>4029.09</v>
       </c>
       <c r="G5">
@@ -2704,7 +2692,7 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>3250</v>
       </c>
       <c r="J5">
@@ -2712,18 +2700,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="1">
         <v>45047</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2731,7 +2719,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>4029.09</v>
       </c>
       <c r="G6">
@@ -2740,7 +2728,7 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>3250</v>
       </c>
       <c r="J6">
@@ -2748,18 +2736,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="1">
         <v>45048</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2767,7 +2755,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>4029.09</v>
       </c>
       <c r="G7">
@@ -2776,7 +2764,7 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>3250</v>
       </c>
       <c r="J7">
@@ -2784,18 +2772,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="1">
         <v>45049</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <f t="shared" si="1"/>
         <v>17.142803436617449</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="2"/>
         <v>67984.12</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>0.49665374432166598</v>
       </c>
@@ -2803,7 +2791,7 @@
         <f t="shared" si="3"/>
         <v>136884.34</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>4029.09</v>
       </c>
       <c r="G8">
@@ -2812,7 +2800,7 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>3250</v>
       </c>
       <c r="J8">
@@ -2820,25 +2808,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="1">
         <v>45050</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <f>B8+H8/F9</f>
         <v>17.142803436617449</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f>C8-H8</f>
         <v>67984.12</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>0.49667954268215386</v>
       </c>
       <c r="E9">
         <v>136877.23000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>4030.25</v>
       </c>
       <c r="G9">
@@ -2848,7 +2836,7 @@
         <f>0.03*B9*F9</f>
         <v>2072.6935065128241</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>3500</v>
       </c>
       <c r="J9">
@@ -2856,25 +2844,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="1">
         <v>45051</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <f>B9+H9/F10</f>
         <v>17.658799310657209</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>0.48227533098720721</v>
       </c>
       <c r="E10">
         <v>136667.63</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>4016.88</v>
       </c>
       <c r="G10">
@@ -2883,7 +2871,7 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>3500</v>
       </c>
       <c r="J10">
@@ -2891,25 +2879,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="1">
         <v>45052</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <f t="shared" ref="B11" si="4">B10+H10/F11</f>
         <v>17.658799310657209</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>0.48227533098720721</v>
       </c>
       <c r="E11">
         <v>136667.63</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>4016.88</v>
       </c>
       <c r="G11">
@@ -2918,7 +2906,7 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>3500</v>
       </c>
       <c r="J11">
@@ -2926,25 +2914,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="1">
         <v>45053</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <f t="shared" ref="B12:B26" si="5">B11+H11/F12</f>
         <v>17.658799310657209</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>0.48227533098720721</v>
       </c>
       <c r="E12">
         <v>136667.63</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>4016.88</v>
       </c>
       <c r="G12">
@@ -2953,7 +2941,7 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>3500</v>
       </c>
       <c r="J12">
@@ -2961,25 +2949,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="1">
         <v>45054</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>0.47981928212615527</v>
       </c>
       <c r="E13">
         <v>137367.19</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>4062.66</v>
       </c>
       <c r="G13">
@@ -2988,7 +2976,7 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>3500</v>
       </c>
       <c r="J13">
@@ -2996,25 +2984,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="1">
         <v>45055</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>0.48167304420924151</v>
       </c>
       <c r="E14">
         <v>136838.51999999999</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>4027.88</v>
       </c>
       <c r="G14">
@@ -3023,7 +3011,7 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>3750</v>
       </c>
       <c r="J14">
@@ -3031,25 +3019,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="1">
         <v>45056</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>0.48329292654031109</v>
       </c>
       <c r="E15">
         <v>136379.87</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>3996.87</v>
       </c>
       <c r="G15">
@@ -3058,7 +3046,7 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>3750</v>
       </c>
       <c r="J15">
@@ -3066,25 +3054,25 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="1">
         <v>45057</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <f t="shared" si="5"/>
         <v>17.658799310657209</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="2"/>
         <v>65911.426493487175</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>0.48361047573655391</v>
       </c>
       <c r="E16">
         <v>136290.32</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>3990.66</v>
       </c>
       <c r="G16">
@@ -3094,7 +3082,7 @@
         <f>F16*B16*0.02</f>
         <v>1409.405281141346</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>3750</v>
       </c>
       <c r="J16">
@@ -3102,25 +3090,25 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="1">
         <v>45058</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>0.47640190318698322</v>
       </c>
       <c r="E17">
         <v>135394.13</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>3937.76</v>
       </c>
       <c r="G17">
@@ -3129,7 +3117,7 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>3750</v>
       </c>
       <c r="J17">
@@ -3137,25 +3125,25 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="1">
         <v>45059</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>0.47640190318698322</v>
       </c>
       <c r="E18">
         <v>135394.13</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>3998.89</v>
       </c>
       <c r="G18">
@@ -3164,7 +3152,7 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>3750</v>
       </c>
       <c r="J18">
@@ -3172,25 +3160,25 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="1">
         <v>45060</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>0.47640190318698322</v>
       </c>
       <c r="E19">
         <v>135394.13</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>3998.89</v>
       </c>
       <c r="G19">
@@ -3199,7 +3187,7 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>3750</v>
       </c>
       <c r="J19">
@@ -3207,25 +3195,25 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="1">
         <v>45061</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <f t="shared" si="5"/>
         <v>18.016719874922511</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>0.47279190714354336</v>
       </c>
       <c r="E20">
         <v>136427.93</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>3998.89</v>
       </c>
       <c r="G20">
@@ -3234,7 +3222,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>3750</v>
       </c>
       <c r="J20">
@@ -3242,25 +3230,25 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="1">
         <v>45062</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <f>B20+H20/F21</f>
         <v>18.016719874922511</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="2"/>
         <v>64502.021212345826</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>0.47378724704847747</v>
       </c>
       <c r="E21">
         <v>136141.32</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>3960.17</v>
       </c>
       <c r="G21">
@@ -3270,7 +3258,7 @@
         <f>F21*B21*0.125</f>
         <v>8918.6591933839863</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>3750</v>
       </c>
       <c r="J21">
@@ -3278,25 +3266,25 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="1">
         <v>45063</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>0.40934470527168321</v>
       </c>
       <c r="E22">
         <v>135786.20000000001</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>3956.07</v>
       </c>
       <c r="G22">
@@ -3305,7 +3293,7 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>4000</v>
       </c>
       <c r="J22">
@@ -3313,25 +3301,25 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="1">
         <v>45064</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>0.41028410358908113</v>
       </c>
       <c r="E23">
         <v>135475.29999999999</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>3944.54</v>
       </c>
       <c r="G23">
@@ -3340,7 +3328,7 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>4000</v>
       </c>
       <c r="J23">
@@ -3348,25 +3336,25 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="1">
         <v>45065</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>0.41028410358908113</v>
       </c>
       <c r="E24">
         <v>135475.29999999999</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>3944.54</v>
       </c>
       <c r="G24">
@@ -3375,7 +3363,7 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>4000</v>
       </c>
       <c r="J24">
@@ -3383,25 +3371,25 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="1">
         <v>45066</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>0.41028410358908113</v>
       </c>
       <c r="E25">
         <v>135475.29999999999</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>3944.54</v>
       </c>
       <c r="G25">
@@ -3410,7 +3398,7 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>4000</v>
       </c>
       <c r="J25">
@@ -3418,25 +3406,25 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="1">
         <v>45067</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <f t="shared" si="5"/>
         <v>20.271143884958732</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>0.41027477608576246</v>
       </c>
       <c r="E26">
         <v>135478.38</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>3969.33</v>
       </c>
       <c r="G26">
@@ -3445,43 +3433,43 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
-        <v>4250</v>
+      <c r="I26">
+        <v>4000</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="1">
         <v>45068</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <f>B26+H26/F27</f>
         <v>20.271143884958732</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="2"/>
         <v>55583.362018961838</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>0.41027477608576246</v>
       </c>
       <c r="E27">
         <v>135478.38</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>3913.19</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <f>C27*0.25</f>
         <v>13895.840504740459</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>4000</v>
       </c>
       <c r="J27">
@@ -3492,470 +3480,26 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="1">
         <v>45069</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <f>B27+H27/F27</f>
         <v>23.822170158853037</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="2"/>
         <v>41687.521514221378</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>0.30892602152266657</v>
-      </c>
-      <c r="E28">
-        <v>134943.38</v>
-      </c>
-      <c r="F28" s="5">
-        <v>3859.09</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
-        <v>45074</v>
-      </c>
-      <c r="B29" s="7">
-        <f>B28+H28/F28</f>
-        <v>23.822170158853037</v>
-      </c>
-      <c r="C29" s="1">
-        <f>4266.56+37370.87</f>
-        <v>41637.43</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.31188920268663745</v>
-      </c>
-      <c r="E29">
-        <v>133500.71</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3833.9416999999999</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>C29*0.2</f>
-        <v>8327.4860000000008</v>
-      </c>
-      <c r="I29" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>45075</v>
-      </c>
-      <c r="B30" s="7">
-        <f>B29+H29/F29</f>
-        <v>25.994213098368785</v>
-      </c>
-      <c r="C30" s="1">
-        <f>C29-H29</f>
-        <v>33309.944000000003</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25017739266801009</v>
-      </c>
-      <c r="E30">
-        <v>133145.29999999999</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3837.75</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>45076</v>
-      </c>
-      <c r="B31" s="7">
-        <f>B30+H30/F30</f>
-        <v>25.994213098368785</v>
-      </c>
-      <c r="C31" s="1">
-        <f>C30-H30</f>
-        <v>33309.944000000003</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25017739266801009</v>
-      </c>
-      <c r="E31">
-        <v>133145.29999999999</v>
-      </c>
-      <c r="F31" s="5">
-        <v>3798.54</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>45078</v>
-      </c>
-      <c r="B32" s="7">
-        <f>B31+H31/F31</f>
-        <v>25.994213098368785</v>
-      </c>
-      <c r="C32" s="1">
-        <f>28797.92+I32</f>
-        <v>33315.56</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25209960290534328</v>
-      </c>
-      <c r="E32">
-        <v>132152.37</v>
-      </c>
-      <c r="F32" s="5">
-        <v>3806.87</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>4517.6400000000003</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>45083</v>
-      </c>
-      <c r="B33" s="7">
-        <f t="shared" ref="B33" si="6">B32+H32/F32</f>
-        <v>25.994213098368785</v>
-      </c>
-      <c r="C33" s="1">
-        <f>28531.17+I33</f>
-        <v>33300.899999999994</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25120620983072323</v>
-      </c>
-      <c r="E33">
-        <v>132564</v>
-      </c>
-      <c r="F33" s="5">
-        <v>3808.16</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>4769.7299999999996</v>
-      </c>
-      <c r="J33">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>45084</v>
-      </c>
-      <c r="B34" s="7">
-        <f>B33+H33/F33</f>
-        <v>25.994213098368785</v>
-      </c>
-      <c r="C34" s="1">
-        <f>C33-H33+J33</f>
-        <v>33279.899999999994</v>
-      </c>
-      <c r="D34" s="3">
-        <f>C34/E34</f>
-        <v>0.25104779578166014</v>
-      </c>
-      <c r="E34">
-        <v>132564</v>
-      </c>
-      <c r="F34" s="5">
-        <v>3789.34</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>5000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>4769.7299999999996</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>45085</v>
-      </c>
-      <c r="B35" s="7">
-        <f>B34+H34/F34</f>
-        <v>27.313704091523267</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" ref="C35" si="7">C34-H34</f>
-        <v>28279.899999999994</v>
-      </c>
-      <c r="D35" s="3">
-        <f>C35/E35</f>
-        <v>0.21333016505235203</v>
-      </c>
-      <c r="E35">
-        <v>132564</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3820.19</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>4770.49</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>45088</v>
-      </c>
-      <c r="B36" s="7">
-        <f>B35+H35/F35</f>
-        <v>27.313704091523267</v>
-      </c>
-      <c r="C36" s="1">
-        <f>23537.47+I35</f>
-        <v>28307.96</v>
-      </c>
-      <c r="D36" s="3">
-        <f>C36/E36</f>
-        <v>0.21222063630445889</v>
-      </c>
-      <c r="E36">
-        <v>133389.29</v>
-      </c>
-      <c r="F36" s="5">
-        <v>3844.4324000000001</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>5000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>4770.49</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>45089</v>
-      </c>
-      <c r="B37" s="7">
-        <f>B36+H36/F36</f>
-        <v>28.614286200861436</v>
-      </c>
-      <c r="C37" s="1">
-        <f>C36-H36+J36</f>
-        <v>23307.96</v>
-      </c>
-      <c r="D37" s="3">
-        <f>C37/E37</f>
-        <v>0.17372458151891654</v>
-      </c>
-      <c r="E37">
-        <v>134166.16</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3864.91</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>4770.49</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>45092</v>
-      </c>
-      <c r="B38" s="7">
-        <f>B36+H36/F36</f>
-        <v>28.614286200861436</v>
-      </c>
-      <c r="C38" s="1">
-        <f>C37-G37+J37</f>
-        <v>23307.96</v>
-      </c>
-      <c r="D38" s="3">
-        <f>C38/E38</f>
-        <v>0.17002471154544763</v>
-      </c>
-      <c r="E38">
-        <v>137085.72</v>
-      </c>
-      <c r="F38" s="5">
-        <v>3963.35</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>5000</v>
-      </c>
-      <c r="I38" s="1">
-        <v>4770.49</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>45095</v>
-      </c>
-      <c r="B39" s="7">
-        <f>B37+H37/F37</f>
-        <v>28.614286200861436</v>
-      </c>
-      <c r="C39" s="1">
-        <f>C38-H38+J38</f>
-        <v>18307.96</v>
-      </c>
-      <c r="D39" s="3">
-        <f>C39/E39</f>
-        <v>0.13354925350706151</v>
-      </c>
-      <c r="E39">
-        <v>137087.70000000001</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>5021.71</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>45098</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
-        <v>45101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
-        <v>45102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
-        <v>45103</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="C38 C29" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3986,57 +3530,57 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A7136-B9B8-784F-917F-72B807F45959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF70913-26CF-3747-8A6B-A79CFB859478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
@@ -110,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -168,9 +168,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2518,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5319833-2095-864E-96EA-64D00EBC547E}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="137" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3715,7 +3715,7 @@
         <v>33279.899999999994</v>
       </c>
       <c r="D34" s="3">
-        <f>C34/E34</f>
+        <f t="shared" ref="D34:D40" si="7">C34/E34</f>
         <v>0.25104779578166014</v>
       </c>
       <c r="E34">
@@ -3746,11 +3746,11 @@
         <v>27.313704091523267</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ref="C35" si="7">C34-H34</f>
+        <f>C34-H34</f>
         <v>28279.899999999994</v>
       </c>
       <c r="D35" s="3">
-        <f>C35/E35</f>
+        <f t="shared" si="7"/>
         <v>0.21333016505235203</v>
       </c>
       <c r="E35">
@@ -3781,12 +3781,12 @@
         <v>27.313704091523267</v>
       </c>
       <c r="C36" s="1">
-        <f>23537.47+I35</f>
-        <v>28307.96</v>
+        <f>C35-H35</f>
+        <v>28279.899999999994</v>
       </c>
       <c r="D36" s="3">
-        <f>C36/E36</f>
-        <v>0.21222063630445889</v>
+        <f t="shared" si="7"/>
+        <v>0.21201027458801222</v>
       </c>
       <c r="E36">
         <v>133389.29</v>
@@ -3817,11 +3817,11 @@
       </c>
       <c r="C37" s="1">
         <f>C36-H36+J36</f>
-        <v>23307.96</v>
+        <v>23279.899999999994</v>
       </c>
       <c r="D37" s="3">
-        <f>C37/E37</f>
-        <v>0.17372458151891654</v>
+        <f t="shared" si="7"/>
+        <v>0.17351543787196408</v>
       </c>
       <c r="E37">
         <v>134166.16</v>
@@ -3847,16 +3847,16 @@
         <v>45092</v>
       </c>
       <c r="B38" s="7">
-        <f>B36+H36/F36</f>
+        <f>B37 + H37/F37</f>
         <v>28.614286200861436</v>
       </c>
       <c r="C38" s="1">
         <f>C37-G37+J37</f>
-        <v>23307.96</v>
+        <v>23279.899999999994</v>
       </c>
       <c r="D38" s="3">
-        <f>C38/E38</f>
-        <v>0.17002471154544763</v>
+        <f t="shared" si="7"/>
+        <v>0.16982002210004071</v>
       </c>
       <c r="E38">
         <v>137085.72</v>
@@ -3882,20 +3882,23 @@
         <v>45095</v>
       </c>
       <c r="B39" s="7">
-        <f>B37+H37/F37</f>
-        <v>28.614286200861436</v>
+        <f>B38 + H38/F38</f>
+        <v>29.875845235516461</v>
       </c>
       <c r="C39" s="1">
         <f>C38-H38+J38</f>
-        <v>18307.96</v>
+        <v>18279.899999999994</v>
       </c>
       <c r="D39" s="3">
-        <f>C39/E39</f>
-        <v>0.13354925350706151</v>
+        <f t="shared" si="7"/>
+        <v>0.13334456701804751</v>
       </c>
       <c r="E39">
         <v>137087.70000000001</v>
       </c>
+      <c r="F39" s="5">
+        <v>3930.91</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -3911,41 +3914,41 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
-        <v>45096</v>
+        <v>45102</v>
+      </c>
+      <c r="B40" s="7">
+        <f>B39+H40/F40</f>
+        <v>31.977607300287513</v>
+      </c>
+      <c r="C40">
+        <f>18279.9 - 8000</f>
+        <v>10279.900000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="7"/>
+        <v>7.6468598177113725E-2</v>
+      </c>
+      <c r="E40">
+        <v>134432.95999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3806.33</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>8000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5272.54</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>45098</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
-        <v>45101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
-        <v>45102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
         <v>45103</v>
       </c>
     </row>

--- a/Portfolio Records/Portfolio.xlsx
+++ b/Portfolio Records/Portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronlalala/Documents/Notes/Markdown_Notes/Quant_Notes/Portfolio Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF70913-26CF-3747-8A6B-A79CFB859478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D355170-71F9-ED48-A813-3803A0AC5B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{337AEDA5-0EDA-C849-BAD5-3147CADC1C93}"/>
   </bookViews>
@@ -2518,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5319833-2095-864E-96EA-64D00EBC547E}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="137" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3949,6 +3949,11 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>45103</v>
       </c>
     </row>
